--- a/files/a992e433-0297-48e2-b29a-fd65d99e0190_gt.xlsx
+++ b/files/a992e433-0297-48e2-b29a-fd65d99e0190_gt.xlsx
@@ -126,10 +126,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yy\ hh:mm"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -222,19 +221,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -489,30 +488,29 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="8.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -523,122 +521,122 @@
       <c r="A2" s="1" t="n">
         <v>42255.4257</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="str">
+      <c r="D2" s="2" t="str">
         <f aca="false">IF(E2&lt;10,"Retail","Wholesale")</f>
         <v>Wholesale</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="2" t="n">
         <v>33</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.165</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>42349.9764</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="str">
+      <c r="D3" s="2" t="str">
         <f aca="false">IF(E3&lt;10,"Retail","Wholesale")</f>
         <v>Wholesale</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="2" t="n">
         <v>29</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>42357.7576</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="str">
+      <c r="D4" s="2" t="str">
         <f aca="false">IF(E4&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.019</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>42239.5382</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="0" t="str">
+      <c r="D5" s="2" t="str">
         <f aca="false">IF(E5&lt;10,"Retail","Wholesale")</f>
         <v>Wholesale</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="2" t="n">
         <v>36</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>42194.2104</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="0" t="str">
+      <c r="D6" s="2" t="str">
         <f aca="false">IF(E6&lt;10,"Retail","Wholesale")</f>
         <v>Wholesale</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="2" t="n">
         <v>38</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>42185.6951</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="0" t="str">
+      <c r="D7" s="2" t="str">
         <f aca="false">IF(E7&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="2" t="n">
         <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
@@ -649,17 +647,17 @@
       <c r="A8" s="1" t="n">
         <v>42186.5528</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="0" t="str">
+      <c r="D8" s="2" t="str">
         <f aca="false">IF(E8&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="2" t="n">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
@@ -670,59 +668,59 @@
       <c r="A9" s="1" t="n">
         <v>42218.1715</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="0" t="str">
+      <c r="D9" s="2" t="str">
         <f aca="false">IF(E9&lt;10,"Retail","Wholesale")</f>
         <v>Wholesale</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="2" t="n">
         <v>93</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.375</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>42324.5111</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="0" t="str">
+      <c r="D10" s="2" t="str">
         <f aca="false">IF(E10&lt;10,"Retail","Wholesale")</f>
         <v>Wholesale</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="2" t="n">
         <v>64</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.375</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>41982.825</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="str">
+      <c r="D11" s="2" t="str">
         <f aca="false">IF(E11&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
@@ -733,143 +731,143 @@
       <c r="A12" s="1" t="n">
         <v>42346.3493</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="0" t="str">
+      <c r="D12" s="2" t="str">
         <f aca="false">IF(E12&lt;10,"Retail","Wholesale")</f>
         <v>Wholesale</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="2" t="n">
         <v>124</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.594</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>41986.6875</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="0" t="str">
+      <c r="D13" s="2" t="str">
         <f aca="false">IF(E13&lt;10,"Retail","Wholesale")</f>
         <v>Wholesale</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>42239.1299</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="0" t="str">
+      <c r="D14" s="2" t="str">
         <f aca="false">IF(E14&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="2" t="n">
         <v>8</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>42328.459</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="0" t="str">
+      <c r="D15" s="2" t="str">
         <f aca="false">IF(E15&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="2" t="n">
         <v>4</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0.019</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>42242.4618</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="0" t="str">
+      <c r="D16" s="2" t="str">
         <f aca="false">IF(E16&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.019</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>42350.5986</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="0" t="str">
+      <c r="D17" s="2" t="str">
         <f aca="false">IF(E17&lt;10,"Retail","Wholesale")</f>
         <v>Wholesale</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="2" t="n">
         <v>91</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0.356</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>41986.5278</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="0" t="str">
+      <c r="D18" s="2" t="str">
         <f aca="false">IF(E18&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F18" s="2" t="n">
@@ -880,38 +878,38 @@
       <c r="A19" s="1" t="n">
         <v>41985.691</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="0" t="str">
+      <c r="D19" s="2" t="str">
         <f aca="false">IF(E19&lt;10,"Retail","Wholesale")</f>
         <v>Wholesale</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="2" t="n">
         <v>37</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0.159</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>42213.6368</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="0" t="str">
+      <c r="D20" s="2" t="str">
         <f aca="false">IF(E20&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F20" s="2" t="n">
@@ -922,80 +920,80 @@
       <c r="A21" s="1" t="n">
         <v>42241.6993</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="0" t="str">
+      <c r="D21" s="2" t="str">
         <f aca="false">IF(E21&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="2" t="n">
         <v>6</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0.072</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>42358.5243</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="0" t="str">
+      <c r="D22" s="2" t="str">
         <f aca="false">IF(E22&lt;10,"Retail","Wholesale")</f>
         <v>Wholesale</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="2" t="n">
         <v>35</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>42245.5875</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="0" t="str">
+      <c r="D23" s="2" t="str">
         <f aca="false">IF(E23&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0.019</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>42063.4896</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="0" t="str">
+      <c r="D24" s="2" t="str">
         <f aca="false">IF(E24&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F24" s="2" t="n">
@@ -1006,38 +1004,38 @@
       <c r="A25" s="1" t="n">
         <v>42198.2292</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="0" t="s">
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="0" t="str">
+      <c r="D25" s="2" t="str">
         <f aca="false">IF(E25&lt;10,"Retail","Wholesale")</f>
         <v>Wholesale</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="2" t="n">
         <v>34</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>0.169</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>42230.4097</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="0" t="str">
+      <c r="D26" s="2" t="str">
         <f aca="false">IF(E26&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F26" s="2" t="n">
@@ -1048,17 +1046,17 @@
       <c r="A27" s="1" t="n">
         <v>42335.4819</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="0" t="str">
+      <c r="D27" s="2" t="str">
         <f aca="false">IF(E27&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F27" s="2" t="n">
@@ -1069,59 +1067,59 @@
       <c r="A28" s="1" t="n">
         <v>42311.5215</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="0" t="s">
+      <c r="B28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="0" t="str">
+      <c r="D28" s="2" t="str">
         <f aca="false">IF(E28&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="2" t="n">
         <v>5</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>0.071</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>42103.5299</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="0" t="str">
+      <c r="D29" s="2" t="str">
         <f aca="false">IF(E29&lt;10,"Retail","Wholesale")</f>
         <v>Wholesale</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="2" t="n">
         <v>68</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>0.375</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>42346.7611</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="0" t="str">
+      <c r="D30" s="2" t="str">
         <f aca="false">IF(E30&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="2" t="n">
         <v>4</v>
       </c>
       <c r="F30" s="2" t="n">
@@ -1132,17 +1130,17 @@
       <c r="A31" s="1" t="n">
         <v>42054.9257</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="0" t="str">
+      <c r="D31" s="2" t="str">
         <f aca="false">IF(E31&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F31" s="2" t="n">
@@ -1153,17 +1151,17 @@
       <c r="A32" s="1" t="n">
         <v>42350.3646</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="0" t="str">
+      <c r="D32" s="2" t="str">
         <f aca="false">IF(E32&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F32" s="2" t="n">
@@ -1174,17 +1172,17 @@
       <c r="A33" s="1" t="n">
         <v>41982.5083</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="0" t="str">
+      <c r="D33" s="2" t="str">
         <f aca="false">IF(E33&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F33" s="2" t="n">
@@ -1195,59 +1193,59 @@
       <c r="A34" s="1" t="n">
         <v>41980.8229</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="B34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="0" t="str">
+      <c r="D34" s="2" t="str">
         <f aca="false">IF(E34&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="2" t="n">
         <v>3</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>0.018</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>41979.7403</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="0" t="s">
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="0" t="str">
+      <c r="D35" s="2" t="str">
         <f aca="false">IF(E35&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>0.019</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>42158.1625</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="0" t="str">
+      <c r="D36" s="2" t="str">
         <f aca="false">IF(E36&lt;10,"Retail","Wholesale")</f>
         <v>Retail</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="2" t="n">
         <v>4</v>
       </c>
       <c r="F36" s="2" t="n">
@@ -1272,14 +1270,14 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="13.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
